--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2115.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2115.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.602203154137757</v>
+        <v>1.449729800224304</v>
       </c>
       <c r="B1">
-        <v>1.895601454197716</v>
+        <v>4.660916805267334</v>
       </c>
       <c r="C1">
-        <v>1.558723865632902</v>
+        <v>2.269258499145508</v>
       </c>
       <c r="D1">
-        <v>1.593180484562194</v>
+        <v>1.628582954406738</v>
       </c>
       <c r="E1">
-        <v>1.81601017481024</v>
+        <v>1.405364513397217</v>
       </c>
     </row>
   </sheetData>
